--- a/ORG_ROOM.xlsx
+++ b/ORG_ROOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C02F78-F987-4B20-BD04-526B93661B70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8669B14-47FD-4C3B-9B6E-486C3B5A3F13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>ORG_ROOM_PK</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>หฝส.</t>
+  </si>
+  <si>
+    <t>ORG_ROOM_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_ROOM_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_ROOM_STATUS</t>
   </si>
 </sst>
 </file>
@@ -436,18 +445,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="27.81640625" customWidth="1"/>
+    <col min="1" max="11" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +466,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>15501</v>
       </c>
@@ -469,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>15502</v>
       </c>
@@ -480,7 +498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15503</v>
       </c>
@@ -491,7 +509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>15504</v>
       </c>
@@ -502,7 +520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15505</v>
       </c>
@@ -513,7 +531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15506</v>
       </c>
@@ -524,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>15507</v>
       </c>
@@ -535,7 +553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>15508</v>
       </c>
@@ -546,7 +564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>15509</v>
       </c>
@@ -557,7 +575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>15510</v>
       </c>
@@ -568,7 +586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>15511</v>
       </c>
@@ -579,7 +597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>15512</v>
       </c>
@@ -590,7 +608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15513</v>
       </c>
@@ -601,7 +619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15514</v>
       </c>
@@ -612,7 +630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15515</v>
       </c>
@@ -623,7 +641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15516</v>
       </c>
@@ -634,7 +652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15517</v>
       </c>
@@ -645,7 +663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15518</v>
       </c>
@@ -656,7 +674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15519</v>
       </c>
@@ -667,7 +685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>15520</v>
       </c>
@@ -678,7 +696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>15521</v>
       </c>
@@ -689,7 +707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>15522</v>
       </c>
@@ -700,7 +718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>15523</v>
       </c>
@@ -711,7 +729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>15524</v>
       </c>
@@ -722,7 +740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>15525</v>
       </c>
@@ -733,7 +751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>15526</v>
       </c>
@@ -744,7 +762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>15527</v>
       </c>
@@ -755,7 +773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>15528</v>
       </c>
@@ -766,7 +784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>15529</v>
       </c>
@@ -777,7 +795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>15530</v>
       </c>
@@ -788,7 +806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>15531</v>
       </c>
